--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>896914.431454762</v>
+        <v>917046.0783921247</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111175</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6109535.226554583</v>
+        <v>6109535.226554582</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>92.95466700954542</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>10.27068583523955</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>20.25976954829593</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U5" t="n">
-        <v>92.95466700954542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>209.1477307548734</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>62.43486741948623</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1269,16 +1269,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>100.0376190809312</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>62.52515684565935</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>405.7415719969023</v>
@@ -1388,7 +1388,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>96.30626612731599</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>58.16339389862516</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1497,10 +1497,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1509,13 +1509,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>134.5658975014684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>11.81861933956887</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.3881647021493</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.74806282379153</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.81621177077438</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>153.9357315396292</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>68.03870791522236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>21.3881647021493</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>193.4289090289419</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>163.7233641567951</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>61.95809925116076</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>21.95667389907128</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>241.9189633854832</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>81.21596998689211</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>122.0501874122703</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>150.9149436811929</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>106.0890042129122</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>201.3876489924064</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.17257387244624</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10.27077547947473</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>86.12552142422589</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>89.98174747814556</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>122.0501874122703</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>11.59404290507676</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,19 +2755,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.06064116356384</v>
       </c>
       <c r="T28" t="n">
-        <v>39.19479062707042</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>123.4746204242134</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>163.7233641567951</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.12752273267782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>122.0501874122705</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2992,25 +2992,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.65343661111034</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.4745428196982</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>58.4268504427749</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>35.54483890212026</v>
       </c>
       <c r="H33" t="n">
-        <v>83.38828075115831</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3168,10 +3168,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>39.19479062707025</v>
+        <v>30.44996741998411</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
-        <v>46.0089702596777</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>26.50533691882888</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>88.00880902957773</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
@@ -3399,19 +3399,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>185.0548805935289</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>39.19479062707041</v>
+        <v>145.6674229028285</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>141.6396260835077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>86.65804289016209</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3588,16 +3588,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>111.3803086133543</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>77.67842534509523</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.78974769572852</v>
       </c>
       <c r="H40" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>222.5515792240357</v>
       </c>
       <c r="H41" t="n">
-        <v>322.4247835801416</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3819,25 +3819,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>51.54912749009464</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.30283807112627</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.295267780926</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>131.9086203346925</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>154.7290417688738</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>73.7992820541476</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
@@ -4116,10 +4116,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>188.1699134894316</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.4649978087242</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X3" t="n">
-        <v>708.4406335937462</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>500.6803348287922</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,10 +4650,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>290.1981659616912</v>
+        <v>752.7968214148045</v>
       </c>
       <c r="X6" t="n">
-        <v>82.34666575615842</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>533.6469426057913</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="W9" t="n">
-        <v>290.1981659616912</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="10">
@@ -4978,10 +4978,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D11" t="n">
-        <v>1286.226725594945</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E11" t="n">
-        <v>1286.226725594945</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F11" t="n">
-        <v>876.3867538809027</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G11" t="n">
-        <v>466.5467821668599</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
-        <v>129.7383824540108</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975219</v>
@@ -5042,13 +5042,13 @@
         <v>70.13987180521485</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.7947023326189</v>
+        <v>909.9986151740086</v>
       </c>
       <c r="C12" t="n">
-        <v>111.7947023326189</v>
+        <v>735.5455858928816</v>
       </c>
       <c r="D12" t="n">
-        <v>111.7947023326189</v>
+        <v>586.6111762316303</v>
       </c>
       <c r="E12" t="n">
-        <v>111.7947023326189</v>
+        <v>427.3737212261748</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>280.8391632530598</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
@@ -5118,16 +5118,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N12" t="n">
         <v>948.4732699082811</v>
@@ -5145,25 +5145,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894784</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577356</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="W12" t="n">
-        <v>455.571351529534</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="X12" t="n">
-        <v>247.7198513240011</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="Y12" t="n">
-        <v>111.7947023326189</v>
+        <v>1078.213952194077</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.4902764300189</v>
+        <v>349.3086022700522</v>
       </c>
       <c r="C13" t="n">
-        <v>129.4902764300189</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D13" t="n">
-        <v>129.4902764300189</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E13" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
@@ -5218,31 +5218,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="E14" t="n">
-        <v>852.1392691878377</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F14" t="n">
-        <v>442.2992974737949</v>
+        <v>827.3380636753225</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>417.4980919612796</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>80.6896922484305</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011322</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S14" t="n">
-        <v>1460.671441405314</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>178.9938837328672</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C15" t="n">
-        <v>178.9938837328672</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D15" t="n">
-        <v>178.9938837328672</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E15" t="n">
-        <v>178.9938837328672</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>201.1187329501917</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>498.8504879318549</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M15" t="n">
-        <v>898.2686245361178</v>
+        <v>636.3836421851986</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.952780813051</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1386.078089969524</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894781</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577354</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="W15" t="n">
-        <v>455.5713515295337</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="X15" t="n">
-        <v>247.7198513240009</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.9938837328672</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="C16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="D16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="E16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="F16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="G16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="I16" t="n">
         <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5455,31 +5455,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="X16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C17" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975218</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975218</v>
+        <v>827.338063675322</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975218</v>
+        <v>417.4980919612793</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5519,10 +5519,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1343.593509702263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1089.756626634517</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>758.6937392909463</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
-        <v>405.9250840208321</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X17" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>549.7496870371101</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>549.7496870371101</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>400.8152773758588</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>241.5778223704033</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>95.04326439728831</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N18" t="n">
         <v>1057.709031609043</v>
@@ -5619,25 +5619,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1600.787829503699</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1600.787829503699</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>1600.787829503699</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V18" t="n">
-        <v>1365.635721271956</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="W18" t="n">
-        <v>1365.635721271956</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X18" t="n">
-        <v>1365.635721271956</v>
+        <v>925.7253228221321</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.875422507002</v>
+        <v>717.9650240571782</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
         <v>32.45932575975218</v>
@@ -5701,22 +5701,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1622.966287987609</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C20" t="n">
-        <v>1622.966287987609</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D20" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E20" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
@@ -5756,10 +5756,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5786,16 +5786,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1540.929954667516</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.966287987609</v>
+        <v>1540.929954667516</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.966287987609</v>
+        <v>1167.464196406436</v>
       </c>
       <c r="Y20" t="n">
-        <v>1622.966287987609</v>
+        <v>777.3248644306245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>181.3937354210034</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="C21" t="n">
-        <v>181.3937354210034</v>
+        <v>610.4487659877258</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975218</v>
+        <v>461.5143563264745</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>302.276901321019</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>155.742343347904</v>
       </c>
       <c r="G21" t="n">
         <v>32.45932575975218</v>
@@ -5829,52 +5829,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V21" t="n">
-        <v>709.8087082577354</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W21" t="n">
-        <v>557.3693712060253</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X21" t="n">
-        <v>557.3693712060253</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y21" t="n">
-        <v>349.6090724410715</v>
+        <v>953.1171322889209</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1401.339622460484</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>982.5295648557415</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C23" t="n">
-        <v>982.5295648557415</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D23" t="n">
-        <v>982.5295648557415</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E23" t="n">
-        <v>982.5295648557415</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975218</v>
@@ -5987,7 +5987,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
@@ -5996,7 +5996,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6011,28 +6011,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U23" t="n">
-        <v>1369.129404919863</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V23" t="n">
-        <v>1369.129404919863</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W23" t="n">
-        <v>1369.129404919863</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X23" t="n">
-        <v>1369.129404919863</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y23" t="n">
-        <v>1369.129404919863</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>661.618777680701</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>487.165748399574</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
         <v>32.45932575975218</v>
@@ -6066,22 +6066,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>256.6067387278473</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6090,28 +6090,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U24" t="n">
-        <v>1374.066492846507</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.066492846507</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W24" t="n">
-        <v>1119.829136118305</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X24" t="n">
-        <v>911.9776359127723</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y24" t="n">
-        <v>704.2173371478184</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>191.8257232724345</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>191.8257232724345</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>42.83384644609029</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
         <v>32.45932575975218</v>
@@ -6190,7 +6190,7 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1145.475793905159</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C26" t="n">
-        <v>776.5132769647469</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D26" t="n">
-        <v>418.2475783579964</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1535.970811801522</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1535.970811801522</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1535.970811801522</v>
       </c>
       <c r="U26" t="n">
-        <v>1532.07563396928</v>
+        <v>1535.970811801522</v>
       </c>
       <c r="V26" t="n">
-        <v>1532.07563396928</v>
+        <v>1204.907924457952</v>
       </c>
       <c r="W26" t="n">
-        <v>1532.07563396928</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="X26" t="n">
-        <v>1532.07563396928</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="Y26" t="n">
-        <v>1532.07563396928</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>784.9017952688528</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="C27" t="n">
-        <v>610.4487659877258</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="D27" t="n">
-        <v>461.5143563264745</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="E27" t="n">
-        <v>302.276901321019</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="F27" t="n">
-        <v>155.742343347904</v>
+        <v>182.5828534501544</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>44.17048020932467</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6312,13 +6312,13 @@
         <v>505.948365158507</v>
       </c>
       <c r="M27" t="n">
-        <v>905.36650176277</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N27" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6330,25 +6330,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U27" t="n">
-        <v>1622.966287987609</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V27" t="n">
-        <v>1622.966287987609</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W27" t="n">
-        <v>1368.728931259408</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X27" t="n">
-        <v>1160.877431053875</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y27" t="n">
-        <v>953.1171322889209</v>
+        <v>329.1174114232695</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>1391.209962814678</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="T28" t="n">
-        <v>321.6559039998486</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.45932575975218</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C29" t="n">
-        <v>32.45932575975218</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D29" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975204</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011317</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6485,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1343.593509702263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1089.756626634517</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>758.6937392909463</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>405.9250840208321</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X29" t="n">
-        <v>32.45932575975218</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.45932575975218</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
         <v>208.2166101768439</v>
@@ -6552,7 +6552,7 @@
         <v>905.36650176277</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O30" t="n">
         <v>1380.722538783602</v>
@@ -6570,22 +6570,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093102</v>
+        <v>1499.683270399457</v>
       </c>
       <c r="U30" t="n">
-        <v>1193.860611630581</v>
+        <v>1499.683270399457</v>
       </c>
       <c r="V30" t="n">
-        <v>958.708503398838</v>
+        <v>1499.683270399457</v>
       </c>
       <c r="W30" t="n">
-        <v>704.4711466706365</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="X30" t="n">
-        <v>496.6196464651036</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y30" t="n">
-        <v>288.8593477001497</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>261.5666648398646</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>1583.596182181372</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>787.2100952984081</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="C32" t="n">
-        <v>418.2475783579964</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="D32" t="n">
-        <v>418.2475783579964</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6704,10 +6704,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6725,25 +6725,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1469.961699280843</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1469.961699280843</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1469.961699280843</v>
       </c>
       <c r="V32" t="n">
-        <v>1563.949267338342</v>
+        <v>1469.961699280843</v>
       </c>
       <c r="W32" t="n">
-        <v>1563.949267338342</v>
+        <v>1469.961699280843</v>
       </c>
       <c r="X32" t="n">
-        <v>1563.949267338342</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="Y32" t="n">
-        <v>1173.80993536253</v>
+        <v>1096.495941019763</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>709.8087082577354</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="C33" t="n">
-        <v>709.8087082577354</v>
+        <v>523.0696260784833</v>
       </c>
       <c r="D33" t="n">
-        <v>560.8742985964841</v>
+        <v>374.1352164172321</v>
       </c>
       <c r="E33" t="n">
-        <v>401.6368435910286</v>
+        <v>214.8977614117766</v>
       </c>
       <c r="F33" t="n">
-        <v>255.1022856179136</v>
+        <v>68.36320343866154</v>
       </c>
       <c r="G33" t="n">
-        <v>116.6899123770838</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
         <v>32.45932575975218</v>
@@ -6777,22 +6777,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L33" t="n">
-        <v>505.948365158507</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M33" t="n">
-        <v>905.36650176277</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N33" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6801,28 +6801,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894781</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V33" t="n">
-        <v>709.8087082577354</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W33" t="n">
-        <v>709.8087082577354</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X33" t="n">
-        <v>709.8087082577354</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y33" t="n">
-        <v>709.8087082577354</v>
+        <v>697.5226553596103</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D34" t="n">
-        <v>1333.769709747513</v>
+        <v>1472.849648575273</v>
       </c>
       <c r="E34" t="n">
-        <v>1333.769709747513</v>
+        <v>1324.93655499288</v>
       </c>
       <c r="F34" t="n">
         <v>1294.179012144411</v>
@@ -6889,19 +6889,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1232.826956011797</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="C35" t="n">
-        <v>1232.826956011797</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="D35" t="n">
-        <v>874.5612574050469</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E35" t="n">
-        <v>488.7730048068027</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F35" t="n">
-        <v>78.93303309275996</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G35" t="n">
-        <v>78.93303309275996</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
         <v>32.45932575975218</v>
@@ -6935,16 +6935,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6959,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="Y35" t="n">
-        <v>1232.826956011797</v>
+        <v>1596.193220392832</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975218</v>
+        <v>751.087253908612</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>576.634224627485</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975218</v>
@@ -7014,52 +7014,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1026.358376588747</v>
+        <v>986.2393621403546</v>
       </c>
       <c r="V36" t="n">
-        <v>791.2062683570039</v>
+        <v>751.087253908612</v>
       </c>
       <c r="W36" t="n">
-        <v>536.9689116288023</v>
+        <v>751.087253908612</v>
       </c>
       <c r="X36" t="n">
-        <v>329.1174114232695</v>
+        <v>751.087253908612</v>
       </c>
       <c r="Y36" t="n">
-        <v>121.3571126583155</v>
+        <v>751.087253908612</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.05002336285361</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L37" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M37" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N37" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U37" t="n">
-        <v>72.05002336285361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V37" t="n">
-        <v>72.05002336285361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W37" t="n">
-        <v>72.05002336285361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X37" t="n">
-        <v>72.05002336285361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.05002336285361</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975218</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975218</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1535.43291133088</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W38" t="n">
-        <v>1182.664256060766</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X38" t="n">
-        <v>809.1984977996857</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="Y38" t="n">
-        <v>419.059165823874</v>
+        <v>175.5296551370327</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>468.3521269378419</v>
+        <v>878.4942068256673</v>
       </c>
       <c r="C39" t="n">
-        <v>293.8990976567148</v>
+        <v>704.0411775445403</v>
       </c>
       <c r="D39" t="n">
-        <v>144.9646879954636</v>
+        <v>555.1067678832891</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>395.8693128778336</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>249.3347549047186</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>110.9223816638888</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975218</v>
@@ -7251,52 +7251,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1541.568727888341</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.568727888341</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V39" t="n">
-        <v>1306.416619656598</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="W39" t="n">
-        <v>1052.179262928397</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="X39" t="n">
-        <v>844.3277627228638</v>
+        <v>1046.709543845735</v>
       </c>
       <c r="Y39" t="n">
-        <v>636.5674639579099</v>
+        <v>1046.709543845735</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="C40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="D40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="E40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="F40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="G40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H40" t="n">
-        <v>256.8779464865154</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I40" t="n">
-        <v>107.8860696601711</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>547.7969551443093</v>
+        <v>626.2214176739374</v>
       </c>
       <c r="C41" t="n">
-        <v>547.7969551443093</v>
+        <v>257.2589007335256</v>
       </c>
       <c r="D41" t="n">
-        <v>547.7969551443093</v>
+        <v>257.2589007335256</v>
       </c>
       <c r="E41" t="n">
-        <v>547.7969551443093</v>
+        <v>257.2589007335256</v>
       </c>
       <c r="F41" t="n">
-        <v>547.7969551443093</v>
+        <v>257.2589007335256</v>
       </c>
       <c r="G41" t="n">
-        <v>547.7969551443093</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
@@ -7415,10 +7415,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1311.402045381201</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V41" t="n">
-        <v>1311.402045381201</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W41" t="n">
-        <v>1311.402045381201</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X41" t="n">
-        <v>937.9362871201211</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="Y41" t="n">
-        <v>547.7969551443093</v>
+        <v>626.2214176739374</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.45932575975218</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975218</v>
+        <v>610.4487659877258</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975218</v>
+        <v>461.5143563264745</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>302.276901321019</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>302.276901321019</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>163.8645280801892</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7494,19 +7494,19 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N42" t="n">
-        <v>1271.486777082839</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7515,25 +7515,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1534.78160306728</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1333.878594172773</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1105.675926710251</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V42" t="n">
-        <v>870.5238184785085</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W42" t="n">
-        <v>616.2864617503069</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X42" t="n">
-        <v>408.4349615447741</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y42" t="n">
-        <v>200.6746627798202</v>
+        <v>953.1171322889209</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1369.60575604483</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1518.597632871174</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>188.751287142453</v>
+        <v>534.6628733412674</v>
       </c>
       <c r="C44" t="n">
-        <v>188.751287142453</v>
+        <v>165.7003564008557</v>
       </c>
       <c r="D44" t="n">
-        <v>188.751287142453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E44" t="n">
-        <v>188.751287142453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
-        <v>188.751287142453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>188.751287142453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>188.751287142453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
@@ -7670,28 +7670,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U44" t="n">
-        <v>948.8168854676546</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V44" t="n">
-        <v>948.8168854676546</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W44" t="n">
-        <v>948.8168854676546</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X44" t="n">
-        <v>575.3511272065748</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y44" t="n">
-        <v>575.3511272065748</v>
+        <v>921.2627134053891</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>519.7380885714408</v>
+        <v>622.9779260119865</v>
       </c>
       <c r="C45" t="n">
-        <v>519.7380885714408</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="D45" t="n">
-        <v>519.7380885714408</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E45" t="n">
-        <v>360.5006335659854</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894781</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577354</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W45" t="n">
-        <v>519.7380885714408</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X45" t="n">
-        <v>519.7380885714408</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y45" t="n">
-        <v>519.7380885714408</v>
+        <v>697.5226553596103</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E46" t="n">
         <v>32.45932575975218</v>
@@ -7843,13 +7843,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>214.1077905899919</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.1077905899919</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>103.5056817990683</v>
       </c>
       <c r="N12" t="n">
-        <v>63.8487512925867</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>228.2563757694028</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>303.3627954849609</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>89.94082829865957</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>174.18790452568</v>
+        <v>92.88803957954771</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L24" t="n">
-        <v>267.4734388209744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275543</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N27" t="n">
-        <v>447.9178485742653</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>203.2271928126415</v>
+        <v>203.2271928126417</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>362.3381572675152</v>
       </c>
       <c r="N33" t="n">
-        <v>447.9178485742653</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275543</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N36" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>418.8785602873039</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>89.94082829865957</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>390.1250211658772</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>319.5347010812061</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>288.9757030627164</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,7 +22592,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,7 +22638,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,13 +22683,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>222.5299013141857</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>185.5132156551815</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22802,7 +22802,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22829,28 +22829,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3909858982911</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,22 +22914,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>42.54725240604625</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>143.2478283578181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>312.3898338622054</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23036,7 +23036,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23112,7 +23112,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23157,16 +23157,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>132.7629680684941</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>143.2478283578181</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,10 +23261,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>306.9349787968916</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1.1344737448091</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>91.45320338325392</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
@@ -23334,25 +23334,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>78.86485560979629</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23385,10 +23385,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23397,13 +23397,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>71.11679827583598</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>168.0133608423684</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,10 +23434,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>126.1137933559315</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>140.0114066867784</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>147.7767020638722</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,25 +23622,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.9582472659325</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.643987862082</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23668,10 +23668,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>126.1137933559315</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>140.0114066867787</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,25 +23777,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>56.79311626624468</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23823,13 +23823,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>75.07015025726069</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,7 +23859,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>143.8705387923445</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -23871,10 +23871,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>38.50629829026013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23941,10 +23941,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>140.0114066867786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24026,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>246.5362884832428</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24048,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>14.97806209615118</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>100.7800394797267</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>61.19408060834057</v>
       </c>
       <c r="I22" t="n">
         <v>147.5019580580808</v>
@@ -24175,10 +24175,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>120.7272614763991</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>205.488396749305</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.3606097774211</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>41.70072328554124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>64.40170098194004</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>26.73016492147156</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24497,13 +24497,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>161.3167667589228</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,25 +24519,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>14.97806209615118</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>97.5965795075346</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24570,16 +24570,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082895</v>
       </c>
       <c r="T28" t="n">
-        <v>187.6214750622408</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>259.2592212392672</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>56.79311626624468</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.40566091718952</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24810,13 +24810,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>76.84379139329118</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>184.756962260743</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756534</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,7 +24932,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24965,7 +24965,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>44.11837101494837</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
@@ -24974,16 +24974,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>269.32540802736</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25008,10 +25008,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>101.4834106063012</v>
       </c>
       <c r="H33" t="n">
-        <v>25.80234166145306</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,10 +25056,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25078,13 +25078,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>106.226257395861</v>
+        <v>114.9710806029471</v>
       </c>
       <c r="G34" t="n">
         <v>167.7266695472104</v>
@@ -25129,7 +25129,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,10 +25166,10 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
-        <v>287.4313454560429</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>86.35034942686858</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>78.52437462028961</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>40.86576019436768</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>128.0520304715574</v>
+        <v>21.57939819579937</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25366,7 +25366,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25409,7 +25409,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>46.11984342706219</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>26.19764345553536</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25448,7 +25448,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25476,16 +25476,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>46.26477184204666</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>31.51219706751613</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>67.93692185148188</v>
       </c>
       <c r="H40" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>192.1619249064982</v>
       </c>
       <c r="H41" t="n">
-        <v>11.01553213557895</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25707,25 +25707,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>57.64149492251672</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,16 +25755,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>78.52437462028948</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25804,10 +25804,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>126.1137933559315</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>222.7744212859905</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25883,7 +25883,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>33.03042774169609</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>92.73390159571974</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,16 +25953,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26004,10 +26004,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>63.52506967148801</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>107.4575578983943</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>80.04223248620855</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440563.9619883184</v>
+        <v>440563.9619883185</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>440563.9619883185</v>
+        <v>440563.9619883184</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557567.1508649745</v>
+        <v>557567.1508649746</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557567.1508649745</v>
+        <v>557567.1508649746</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>557567.1508649745</v>
+        <v>557567.1508649742</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>557567.1508649744</v>
+        <v>557567.1508649746</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>557567.1508649746</v>
+        <v>557567.1508649745</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>557567.1508649744</v>
+        <v>557567.1508649745</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>557567.1508649745</v>
+        <v>557567.1508649741</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>557567.1508649742</v>
+        <v>557567.1508649745</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>557567.1508649742</v>
+        <v>557567.1508649746</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>557567.1508649747</v>
+        <v>557567.1508649742</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557567.1508649746</v>
+        <v>557567.1508649744</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557567.1508649744</v>
+        <v>557567.150864974</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>174468.706157899</v>
       </c>
       <c r="C2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="D2" t="n">
         <v>174468.7061578989</v>
-      </c>
-      <c r="D2" t="n">
-        <v>174468.706157899</v>
       </c>
       <c r="E2" t="n">
         <v>224310.341917837</v>
       </c>
       <c r="F2" t="n">
-        <v>224310.3419178368</v>
+        <v>224310.341917837</v>
       </c>
       <c r="G2" t="n">
         <v>224310.3419178369</v>
       </c>
       <c r="H2" t="n">
-        <v>224310.341917837</v>
+        <v>224310.3419178369</v>
       </c>
       <c r="I2" t="n">
-        <v>224310.3419178369</v>
+        <v>224310.3419178368</v>
       </c>
       <c r="J2" t="n">
         <v>224310.3419178369</v>
       </c>
       <c r="K2" t="n">
+        <v>224310.341917837</v>
+      </c>
+      <c r="L2" t="n">
+        <v>224310.341917837</v>
+      </c>
+      <c r="M2" t="n">
         <v>224310.3419178369</v>
       </c>
-      <c r="L2" t="n">
-        <v>224310.3419178369</v>
-      </c>
-      <c r="M2" t="n">
-        <v>224310.341917837</v>
-      </c>
       <c r="N2" t="n">
-        <v>224310.3419178369</v>
+        <v>224310.3419178368</v>
       </c>
       <c r="O2" t="n">
         <v>224310.3419178369</v>
       </c>
       <c r="P2" t="n">
-        <v>224310.3419178368</v>
+        <v>224310.3419178369</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36022.3303750211</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="F4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="G4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="H4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="I4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="J4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="K4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="L4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="N4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="O4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="P4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
@@ -26494,7 +26494,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9395.675487568471</v>
+        <v>11768.15907833188</v>
       </c>
       <c r="C6" t="n">
-        <v>90165.10701911614</v>
+        <v>92537.59060987958</v>
       </c>
       <c r="D6" t="n">
-        <v>90165.10701911626</v>
+        <v>92537.59060987955</v>
       </c>
       <c r="E6" t="n">
-        <v>-7399.0227718678</v>
+        <v>-4976.492880903999</v>
       </c>
       <c r="F6" t="n">
-        <v>159541.1473533788</v>
+        <v>161963.6772443427</v>
       </c>
       <c r="G6" t="n">
-        <v>159541.1473533788</v>
+        <v>161963.6772443427</v>
       </c>
       <c r="H6" t="n">
-        <v>159541.147353379</v>
+        <v>161963.6772443427</v>
       </c>
       <c r="I6" t="n">
-        <v>159541.1473533789</v>
+        <v>161963.6772443426</v>
       </c>
       <c r="J6" t="n">
-        <v>96481.20475427264</v>
+        <v>98903.73464523644</v>
       </c>
       <c r="K6" t="n">
-        <v>159541.1473533789</v>
+        <v>161963.6772443427</v>
       </c>
       <c r="L6" t="n">
-        <v>159541.1473533789</v>
+        <v>161963.6772443427</v>
       </c>
       <c r="M6" t="n">
-        <v>118490.449490931</v>
+        <v>120912.9793818948</v>
       </c>
       <c r="N6" t="n">
-        <v>159541.1473533789</v>
+        <v>161963.6772443426</v>
       </c>
       <c r="O6" t="n">
-        <v>159541.1473533789</v>
+        <v>161963.6772443427</v>
       </c>
       <c r="P6" t="n">
-        <v>159541.1473533788</v>
+        <v>161963.6772443427</v>
       </c>
     </row>
   </sheetData>
@@ -26799,7 +26799,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192434</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>177.5326105223148</v>
@@ -35495,10 +35495,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569767</v>
       </c>
       <c r="N12" t="n">
-        <v>14.50290175900931</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35662,7 +35662,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P14" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
         <v>53.63987744680304</v>
@@ -35726,25 +35726,25 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>141.3237492791391</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
-        <v>326.276269873291</v>
+        <v>235.7767460815223</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>19.83962944132484</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>177.5326105223148</v>
@@ -36209,7 +36209,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>124.8420549921026</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36218,7 +36218,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>197.3722399636397</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366292</v>
@@ -36452,7 +36452,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366292</v>
+        <v>151.5924345187911</v>
       </c>
       <c r="N27" t="n">
-        <v>398.571999040688</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>153.8813432790641</v>
+        <v>153.8813432790643</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366292</v>
+        <v>300.0857567541445</v>
       </c>
       <c r="N33" t="n">
-        <v>398.571999040688</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N36" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37403,7 +37403,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>369.5327107537265</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>179.0082576726432</v>
       </c>
       <c r="L41" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209097</v>
       </c>
       <c r="M41" t="n">
         <v>322.6315268094071</v>
@@ -37798,7 +37798,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>19.83962944132484</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>340.7791716322998</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>251.9486516777676</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
